--- a/biology/Médecine/Premier_hôpital_de_la_ville_de_Belgrade/Premier_hôpital_de_la_ville_de_Belgrade.xlsx
+++ b/biology/Médecine/Premier_hôpital_de_la_ville_de_Belgrade/Premier_hôpital_de_la_ville_de_Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Premier_h%C3%B4pital_de_la_ville_de_Belgrade</t>
+          <t>Premier_hôpital_de_la_ville_de_Belgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier hôpital de la ville (en serbe cyrillique : Прва варошка болница ; en serbe latin : Prva varoška bolnica) est une institution de santé située à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Stari grad. Construit en 1868, il est inscrit sur la liste des biens culturels de la ville de Belgrade[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier hôpital de la ville (en serbe cyrillique : Прва варошка болница ; en serbe latin : Prva varoška bolnica) est une institution de santé située à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Stari grad. Construit en 1868, il est inscrit sur la liste des biens culturels de la ville de Belgrade.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Premier_h%C3%B4pital_de_la_ville_de_Belgrade</t>
+          <t>Premier_hôpital_de_la_ville_de_Belgrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital, situé 19 rue Džordža Vašingtona, a été construit en 1868 d'après des plans de Jovan Frencl et destiné à devenir le premier hôpital de Belgrade. Avec le bâtiment qui abrite aujourd'hui l'Université de Belgrade, il représente le meilleur exemple du style néoromantique à Belgrade. Il témoigne également du développement de la protection médicale dans la capitale serbe. L'hôpital a été édifié à l'initiative du prince Michel Obrenović et a été financé par les donations des juristes de la Société serbe[1].
-L'édifice se caractérise par sa simplicité, à la fois dans le traitement des façades et dans l'usage modéré de la décoration aussi bien à l'extérieur qu'à l'intérieur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital, situé 19 rue Džordža Vašingtona, a été construit en 1868 d'après des plans de Jovan Frencl et destiné à devenir le premier hôpital de Belgrade. Avec le bâtiment qui abrite aujourd'hui l'Université de Belgrade, il représente le meilleur exemple du style néoromantique à Belgrade. Il témoigne également du développement de la protection médicale dans la capitale serbe. L'hôpital a été édifié à l'initiative du prince Michel Obrenović et a été financé par les donations des juristes de la Société serbe.
+L'édifice se caractérise par sa simplicité, à la fois dans le traitement des façades et dans l'usage modéré de la décoration aussi bien à l'extérieur qu'à l'intérieur.
 </t>
         </is>
       </c>
